--- a/DIT_Selenium_Gmail_Final_Project/gmailProjectData/testData.xlsx
+++ b/DIT_Selenium_Gmail_Final_Project/gmailProjectData/testData.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9FEC93CE-74D6-49F0-B2B9-02184C12A351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\git\DIT_UI_AUTOMATION\DIT_Selenium_Gmail_Final_Project\gmailProjectData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F02E73-2A2C-4AF4-8A25-F8A5A18A5323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{6218BA31-125F-4F1A-B400-503E2C32E0E1}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7460" xr2:uid="{6218BA31-125F-4F1A-B400-503E2C32E0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="2" r:id="rId1"/>
-    <sheet name="URL" sheetId="9" r:id="rId2"/>
+    <sheet name="ErrorMsg" sheetId="10" r:id="rId2"/>
+    <sheet name="URL" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -30,12 +35,6 @@
     <t>https://accounts.google.com/signin/v2/identifier?continue=https%3A%2F%2Fmail.google.com%2Fmail%2F&amp;service=mail&amp;sacu=1&amp;rip=1&amp;flowName=GlifWebSignIn&amp;flowEntry=ServiceLogin</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>devittrainingdemo@gmail.com</t>
   </si>
   <si>
@@ -46,6 +45,36 @@
   </si>
   <si>
     <t>Kenrocks$111</t>
+  </si>
+  <si>
+    <t>Valid Email</t>
+  </si>
+  <si>
+    <t>Valid Password</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>kensuthar111@gmal.com</t>
+  </si>
+  <si>
+    <t>invalidpassword</t>
+  </si>
+  <si>
+    <t>Wrong Email Error Msg</t>
+  </si>
+  <si>
+    <t>Wrong Password Error Msg</t>
+  </si>
+  <si>
+    <t>Couldn't find your Google Account</t>
+  </si>
+  <si>
+    <t>Wrong password. Try again or click Forgot password to reset it.</t>
   </si>
 </sst>
 </file>
@@ -417,54 +446,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5406178-5DC9-4E0B-ABDA-922BEB07AA7F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{27C491E0-BDF2-482C-A658-F0C72002611D}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{27C491E0-BDF2-482C-A658-F0C72002611D}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{A41D3215-484F-4953-B163-F8E822DB33CE}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{B2D45392-CCEB-4FE6-8678-27993A5852D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147D282-A6B5-4350-93F7-32D2B232F350}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884700F7-9F2E-46D4-88D2-B1FA2B3EA981}">
   <dimension ref="A1:B1"/>
   <sheetViews>
